--- a/test/en/tui_openday_en_v1.xlsx
+++ b/test/en/tui_openday_en_v1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\www\tui-open-day.dev\cms\test\en\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="537" activeTab="3"/>
   </bookViews>
@@ -976,7 +971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/test/en/tui_openday_en_v1.xlsx
+++ b/test/en/tui_openday_en_v1.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.ponomarenko\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="537" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="537" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Decisions" sheetId="1" r:id="rId1"/>
     <sheet name="Media" sheetId="2" r:id="rId2"/>
     <sheet name="Products" sheetId="3" r:id="rId3"/>
     <sheet name="Offers" sheetId="4" r:id="rId4"/>
-    <sheet name="Translations" sheetId="6" r:id="rId5"/>
-    <sheet name="Settings" sheetId="5" r:id="rId6"/>
+    <sheet name="Translations" sheetId="5" r:id="rId5"/>
+    <sheet name="Settings" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="167">
   <si>
     <t>Route</t>
   </si>
@@ -36,6 +41,15 @@
     <t>Decision Point 2</t>
   </si>
   <si>
+    <t>Decision Point 3</t>
+  </si>
+  <si>
+    <t>Decision Point 4</t>
+  </si>
+  <si>
+    <t>Decision Point 5</t>
+  </si>
+  <si>
     <t>Outro</t>
   </si>
   <si>
@@ -60,6 +74,12 @@
     <t>icon_path</t>
   </si>
   <si>
+    <t>decisions</t>
+  </si>
+  <si>
+    <t>sequence_fps</t>
+  </si>
+  <si>
     <t>product_score_1</t>
   </si>
   <si>
@@ -78,19 +98,196 @@
     <t>Homepage video</t>
   </si>
   <si>
-    <t>homepage</t>
+    <t>13</t>
+  </si>
+  <si>
+    <t>intro/clip.mp4</t>
+  </si>
+  <si>
+    <t>3,4</t>
   </si>
   <si>
     <t>A break with the family?</t>
   </si>
   <si>
+    <t>family_intro/clip.mp4</t>
+  </si>
+  <si>
+    <t>family_intro/family.svg</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
     <t>An escape for you and your partner?</t>
   </si>
   <si>
+    <t>couple_intro/clip.mp4</t>
+  </si>
+  <si>
+    <t>couple_intro/couples.svg</t>
+  </si>
+  <si>
+    <t>13,14</t>
+  </si>
+  <si>
+    <t>Kids Club</t>
+  </si>
+  <si>
+    <t>Go to the Kids club?</t>
+  </si>
+  <si>
+    <t>family_decision_point1/clip.mp4</t>
+  </si>
+  <si>
+    <t>family_decision_point1/kids-club.svg</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>Beach</t>
+  </si>
+  <si>
+    <t>Head to the beach?</t>
+  </si>
+  <si>
+    <t>family_decision_point2/clip.mp4</t>
+  </si>
+  <si>
+    <t>family_decision_point2/beach.svg</t>
+  </si>
+  <si>
+    <t>7,8</t>
+  </si>
+  <si>
+    <t>Water Park</t>
+  </si>
+  <si>
     <t>Go to the water park?</t>
   </si>
   <si>
-    <t>Beach</t>
+    <t>family_decision_point3/clip.mp4</t>
+  </si>
+  <si>
+    <t>family_decision_point3/water-park.svg</t>
+  </si>
+  <si>
+    <t>11,12</t>
+  </si>
+  <si>
+    <t>Beach Stroll</t>
+  </si>
+  <si>
+    <t>family_decision_point4/clip.mp4</t>
+  </si>
+  <si>
+    <t>family_decision_point4/beach-stroll.svg</t>
+  </si>
+  <si>
+    <t>Get Active</t>
+  </si>
+  <si>
+    <t>family_decision_point5/clip.mp4</t>
+  </si>
+  <si>
+    <t>family_decision_point5/get-active.svg</t>
+  </si>
+  <si>
+    <t>Unwind</t>
+  </si>
+  <si>
+    <t>family_decision_point6/clip.mp4</t>
+  </si>
+  <si>
+    <t>family_decision_point6/unwind.svg</t>
+  </si>
+  <si>
+    <t>Dinner/Show</t>
+  </si>
+  <si>
+    <t>family_decision_point7/clip.mp4</t>
+  </si>
+  <si>
+    <t>family_decision_point7/dinner-show.svg</t>
+  </si>
+  <si>
+    <t>Intimate Dinner</t>
+  </si>
+  <si>
+    <t>family_decision_point8/clip.mp4</t>
+  </si>
+  <si>
+    <t>family_decision_point8/intimate-dinner.svg</t>
+  </si>
+  <si>
+    <t>couple_decision_point1/clip.mp4</t>
+  </si>
+  <si>
+    <t>couple_decision_point1/beach.svg</t>
+  </si>
+  <si>
+    <t>16,17</t>
+  </si>
+  <si>
+    <t>Break A Sweat</t>
+  </si>
+  <si>
+    <t>couple_decision_point2/clip.mp4</t>
+  </si>
+  <si>
+    <t>couple_decision_point2/break-a-sweet.svg</t>
+  </si>
+  <si>
+    <t>17,18</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>couple_decision_point3/clip.mp4</t>
+  </si>
+  <si>
+    <t>couple_decision_point3/spa.svg</t>
+  </si>
+  <si>
+    <t>19,20</t>
+  </si>
+  <si>
+    <t>couple_decision_point4/clip.mp4</t>
+  </si>
+  <si>
+    <t>couple_decision_point4/get-active.svg</t>
+  </si>
+  <si>
+    <t>couple_decision_point5/clip.mp4</t>
+  </si>
+  <si>
+    <t>couple_decision_point5/unwind.svg</t>
+  </si>
+  <si>
+    <t>Cocktails</t>
+  </si>
+  <si>
+    <t>couple_decision_point6/clip.mp4</t>
+  </si>
+  <si>
+    <t>couple_decision_point6/coctails.svg</t>
+  </si>
+  <si>
+    <t>couple_decision_point7/clip.mp4</t>
+  </si>
+  <si>
+    <t>couple_decision_point7/intimate-dinner.svg</t>
+  </si>
+  <si>
+    <t>Dinner/Explore</t>
+  </si>
+  <si>
+    <t>couple_decision_point8/clip.mp4</t>
+  </si>
+  <si>
+    <t>couple_decision_point8/dinner-explore.svg</t>
   </si>
   <si>
     <t>product_id</t>
@@ -105,15 +302,69 @@
     <t>product_logo_asset_path</t>
   </si>
   <si>
+    <t>product_image_asset_path</t>
+  </si>
+  <si>
     <t>product_description</t>
   </si>
   <si>
     <t>product_link</t>
   </si>
   <si>
+    <t>Thomson Sensatori</t>
+  </si>
+  <si>
+    <t>#ADFF2F</t>
+  </si>
+  <si>
+    <t>1/logo.png</t>
+  </si>
+  <si>
+    <t>1/image.png</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
+  </si>
+  <si>
     <t>http://www.thomson.co.uk/editorial/sensatori/sensatori.html</t>
   </si>
   <si>
+    <t>Thomson Couples</t>
+  </si>
+  <si>
+    <t>2/logo.png</t>
+  </si>
+  <si>
+    <t>2/image.png</t>
+  </si>
+  <si>
+    <t>First Choice Splash World</t>
+  </si>
+  <si>
+    <t>3/logo.png</t>
+  </si>
+  <si>
+    <t>3/image.png</t>
+  </si>
+  <si>
+    <t>First Choice Holiday Village</t>
+  </si>
+  <si>
+    <t>4/logo.png</t>
+  </si>
+  <si>
+    <t>4/image.png</t>
+  </si>
+  <si>
+    <t>Thomson Family Resorts</t>
+  </si>
+  <si>
+    <t>5/logo.png</t>
+  </si>
+  <si>
+    <t>5/image.png</t>
+  </si>
+  <si>
     <t>offer_id</t>
   </si>
   <si>
@@ -138,6 +389,9 @@
     <t>offer_price</t>
   </si>
   <si>
+    <t>offer_image_path</t>
+  </si>
+  <si>
     <t>Harrington Park Resort</t>
   </si>
   <si>
@@ -159,12 +413,93 @@
     <t>2,3</t>
   </si>
   <si>
+    <t>msgid</t>
+  </si>
+  <si>
+    <t>msgstr</t>
+  </si>
+  <si>
+    <t>site_title</t>
+  </si>
+  <si>
+    <t>Holidays designed by you</t>
+  </si>
+  <si>
+    <t>text for the site title tag</t>
+  </si>
+  <si>
+    <t>welcome_screen_instruction</t>
+  </si>
+  <si>
+    <t>Welcome screen - instruction text for user</t>
+  </si>
+  <si>
+    <t>start_application_button</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Welcome screen - start button text</t>
+  </si>
+  <si>
+    <t>footer_share_label</t>
+  </si>
+  <si>
+    <t>Share your Open Day</t>
+  </si>
+  <si>
+    <t>Footer bar share text</t>
+  </si>
+  <si>
+    <t>footer_help_label</t>
+  </si>
+  <si>
+    <t>Help! What is Open Day?</t>
+  </si>
+  <si>
+    <t>Footer bar help text</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
+    <t>path_to_s3_bucket</t>
+  </si>
+  <si>
+    <t>Path to S3 folder with media source content</t>
+  </si>
+  <si>
+    <t>path_to_media</t>
+  </si>
+  <si>
+    <t>http://54.220.64.161/media/</t>
+  </si>
+  <si>
+    <t>Path to folder with media content</t>
+  </si>
+  <si>
+    <t>path_to_products</t>
+  </si>
+  <si>
+    <t>http://d2144z0tsooakf.cloudfront.net/tui_openday/en/ifilms_v1/products/</t>
+  </si>
+  <si>
+    <t>Path to folder with products content</t>
+  </si>
+  <si>
+    <t>path_to_offers</t>
+  </si>
+  <si>
+    <t>http://d2144z0tsooakf.cloudfront.net/tui_openday/en/ifilms_v1/offers/</t>
+  </si>
+  <si>
+    <t>Path to folder with offers content</t>
+  </si>
+  <si>
     <t>currency</t>
   </si>
   <si>
@@ -180,90 +515,6 @@
     <t>Number of products, reflected in the products sheet and also the weighting columns on the media sheet</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>sequence_fps</t>
-  </si>
-  <si>
-    <t>msgid</t>
-  </si>
-  <si>
-    <t>msgstr</t>
-  </si>
-  <si>
-    <t>site_title</t>
-  </si>
-  <si>
-    <t>text for the site title tag</t>
-  </si>
-  <si>
-    <t>Holidays designed by you</t>
-  </si>
-  <si>
-    <t>welcome_screen_instruction</t>
-  </si>
-  <si>
-    <t>Welcome screen - instruction text for user</t>
-  </si>
-  <si>
-    <t>start_application_button</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Welcome screen - start button text</t>
-  </si>
-  <si>
-    <t>intro/clip.mp4</t>
-  </si>
-  <si>
-    <t>family_intro/clip.mov</t>
-  </si>
-  <si>
-    <t>family_intro/family.svg</t>
-  </si>
-  <si>
-    <t>couple_intro/clip.mov</t>
-  </si>
-  <si>
-    <t>couple_intro/couples.svg</t>
-  </si>
-  <si>
-    <t>family_decision_point_1/clip.mov</t>
-  </si>
-  <si>
-    <t>family_decision_point_2/clip.mov</t>
-  </si>
-  <si>
-    <t>couple_decision_point_1/clip.mov</t>
-  </si>
-  <si>
-    <t>couple_decision_point_2/clip.mov</t>
-  </si>
-  <si>
-    <t>tui-ifilms/tui_openday/en/ifilms_v1/media/</t>
-  </si>
-  <si>
-    <t>footer_share_label</t>
-  </si>
-  <si>
-    <t>footer_help_label</t>
-  </si>
-  <si>
-    <t>Footer bar share text</t>
-  </si>
-  <si>
-    <t>Footer bar help text</t>
-  </si>
-  <si>
-    <t>Help! What is Open Day?</t>
-  </si>
-  <si>
-    <t>Share your Open Day</t>
-  </si>
-  <si>
     <t>google_analytics_id</t>
   </si>
   <si>
@@ -273,283 +524,17 @@
     <t>Google Analytics Identificator</t>
   </si>
   <si>
-    <t>path_to_s3_bucket</t>
-  </si>
-  <si>
-    <t>path_to_media</t>
-  </si>
-  <si>
-    <t>http://88.208.192.173/media/</t>
-  </si>
-  <si>
-    <t>Path to folder with media content</t>
-  </si>
-  <si>
-    <t>Path to S3 folder with media source content</t>
-  </si>
-  <si>
-    <t>Kids Club</t>
-  </si>
-  <si>
-    <t>Go to the Kids club?</t>
-  </si>
-  <si>
-    <t>Head to the beach?</t>
-  </si>
-  <si>
-    <t>family_decision_point_1/kids-club.svg</t>
-  </si>
-  <si>
-    <t>family_decision_point_2/beach.svg</t>
-  </si>
-  <si>
-    <t>Water Park</t>
-  </si>
-  <si>
-    <t>family_decision_point_3/clip.mov</t>
-  </si>
-  <si>
-    <t>family_decision_point_4/clip.mov</t>
-  </si>
-  <si>
-    <t>family_decision_point_5/clip.mov</t>
-  </si>
-  <si>
-    <t>family_decision_point_6/clip.mov</t>
-  </si>
-  <si>
-    <t>family_decision_point_7/clip.mov</t>
-  </si>
-  <si>
-    <t>family_decision_point_8/clip.mov</t>
-  </si>
-  <si>
-    <t>couple_decision_point_3/clip.mov</t>
-  </si>
-  <si>
-    <t>couple_decision_point_4/clip.mov</t>
-  </si>
-  <si>
-    <t>couple_decision_point_5/clip.mov</t>
-  </si>
-  <si>
-    <t>couple_decision_point_6/clip.mov</t>
-  </si>
-  <si>
-    <t>couple_decision_point_7/clip.mov</t>
-  </si>
-  <si>
-    <t>couple_decision_point_8/clip.mov</t>
-  </si>
-  <si>
-    <t>outro/clip.mov</t>
-  </si>
-  <si>
-    <t>Beach Stroll</t>
-  </si>
-  <si>
-    <t>Get Active</t>
-  </si>
-  <si>
-    <t>Unwind</t>
-  </si>
-  <si>
-    <t>Dinner/Show</t>
-  </si>
-  <si>
-    <t>Intimate Dinner</t>
-  </si>
-  <si>
-    <t>Break A Sweat</t>
-  </si>
-  <si>
-    <t>Spa</t>
-  </si>
-  <si>
-    <t>Cocktails</t>
-  </si>
-  <si>
-    <t>Dinner/Explore</t>
-  </si>
-  <si>
-    <t>family_decision_point_3/water-park.svg</t>
-  </si>
-  <si>
-    <t>family_decision_point_4/beach-stroll.svg</t>
-  </si>
-  <si>
-    <t>family_decision_point_5/get-active.svg</t>
-  </si>
-  <si>
-    <t>family_decision_point_6/unwind.svg</t>
-  </si>
-  <si>
-    <t>family_decision_point_7/dinner-show.svg</t>
-  </si>
-  <si>
-    <t>family_decision_point_8/intimate-dinner.svg</t>
-  </si>
-  <si>
-    <t>couple_decision_point_1/beach.svg</t>
-  </si>
-  <si>
-    <t>couple_decision_point_3/spa.svg</t>
-  </si>
-  <si>
-    <t>couple_decision_point_5/unwind.svg</t>
-  </si>
-  <si>
-    <t>couple_decision_point_7/intimate-dinner.svg</t>
-  </si>
-  <si>
-    <t>couple_decision_point_2/break-a-sweet.svg</t>
-  </si>
-  <si>
-    <t>couple_decision_point_4/get-active.svg</t>
-  </si>
-  <si>
-    <t>couple_decision_point_6/coctails.svg</t>
-  </si>
-  <si>
-    <t>couple_decision_point_8/dinner-explore.svg</t>
-  </si>
-  <si>
-    <t>Decision Point 3</t>
-  </si>
-  <si>
-    <t>Decision Point 4</t>
-  </si>
-  <si>
-    <t>Decision Point 5</t>
-  </si>
-  <si>
-    <t>7,8</t>
-  </si>
-  <si>
-    <t>13,14</t>
-  </si>
-  <si>
-    <t>decisions</t>
-  </si>
-  <si>
-    <t>9,10</t>
-  </si>
-  <si>
-    <t>11,12</t>
-  </si>
-  <si>
-    <t>5,6</t>
-  </si>
-  <si>
-    <t>16,17</t>
-  </si>
-  <si>
-    <t>17,18</t>
-  </si>
-  <si>
-    <t>19,20</t>
-  </si>
-  <si>
-    <t>path_to_products</t>
-  </si>
-  <si>
-    <t>http://88.208.192.173/products/</t>
-  </si>
-  <si>
-    <t>Path to folder with products content</t>
-  </si>
-  <si>
-    <t>Thomson Sensatori</t>
-  </si>
-  <si>
-    <t>product_image_asset_path</t>
-  </si>
-  <si>
-    <t>Thomson Couples</t>
-  </si>
-  <si>
-    <t>First Choice Splash World</t>
-  </si>
-  <si>
-    <t>First Choice Holiday Village</t>
-  </si>
-  <si>
-    <t>Thomson Family Resorts</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat. Duis aute irure dolor in reprehenderit in voluptate velit esse cillum dolore eu fugiat nulla pariatur. Excepteur sint occaecat cupidatat non proident, sunt in culpa qui officia deserunt mollit anim id est laborum.</t>
-  </si>
-  <si>
-    <t>#ADFF2F</t>
-  </si>
-  <si>
-    <t>offer_image_path</t>
-  </si>
-  <si>
-    <t>/products/1/logo.png</t>
-  </si>
-  <si>
-    <t>/products/2/logo.png</t>
-  </si>
-  <si>
-    <t>/products/3/logo.png</t>
-  </si>
-  <si>
-    <t>/products/4/logo.png</t>
-  </si>
-  <si>
-    <t>/products/5/logo.png</t>
-  </si>
-  <si>
-    <t>/products/1/image.png</t>
-  </si>
-  <si>
-    <t>/products/2/image.png</t>
-  </si>
-  <si>
-    <t>/products/3/image.png</t>
-  </si>
-  <si>
-    <t>/products/4/image.png</t>
-  </si>
-  <si>
-    <t>/products/5/image.png</t>
-  </si>
-  <si>
-    <t>/offers/1/image.png</t>
-  </si>
-  <si>
-    <t>/offers/2/image.png</t>
-  </si>
-  <si>
-    <t>/offers/3/image.png</t>
-  </si>
-  <si>
-    <t>/offers/4/image.png</t>
+    <t>en/ifilms_v2/media/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -599,23 +584,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
@@ -625,76 +610,70 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00F2F2F2"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00D9D9D9"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
       <rgbColor rgb="00003366"/>
       <rgbColor rgb="00339966"/>
       <rgbColor rgb="00003300"/>
@@ -971,7 +950,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -982,7 +961,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,52 +969,52 @@
     <col min="1" max="1" width="7.140625"/>
     <col min="2" max="2" width="8.85546875"/>
     <col min="3" max="3" width="4.85546875"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="8" width="27" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125"/>
+    <col min="5" max="8" width="27"/>
     <col min="9" max="9" width="5.7109375"/>
     <col min="10" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="13">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="2">
         <v>4</v>
       </c>
       <c r="E2">
@@ -1050,15 +1029,15 @@
       <c r="H2">
         <v>19</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3">
         <v>14</v>
       </c>
@@ -1071,15 +1050,15 @@
       <c r="H3">
         <v>20</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="12">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2">
         <v>3</v>
       </c>
       <c r="E4">
@@ -1094,13 +1073,13 @@
       <c r="H4">
         <v>11</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5">
         <v>6</v>
       </c>
@@ -1113,7 +1092,7 @@
       <c r="H5">
         <v>12</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1132,83 +1111,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMF22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.28515625" customWidth="1"/>
-    <col min="5" max="5" width="47.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.140625"/>
+    <col min="3" max="3" width="38.42578125"/>
+    <col min="4" max="4" width="43.28515625"/>
+    <col min="5" max="5" width="47.7109375"/>
+    <col min="6" max="6" width="17.7109375"/>
+    <col min="7" max="7" width="18.5703125"/>
+    <col min="8" max="8" width="16.7109375"/>
+    <col min="9" max="9" width="18.7109375"/>
+    <col min="10" max="10" width="16.140625"/>
+    <col min="11" max="11" width="17.140625"/>
+    <col min="12" max="12" width="17.28515625"/>
     <col min="13" max="1021" width="8.85546875"/>
+    <col min="1022" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1020" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="3" t="s">
+    <row r="1" spans="1:12" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AMF1"/>
-    </row>
-    <row r="2" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1216,33 +1195,36 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>30</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H4">
         <v>10</v>
@@ -1260,27 +1242,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>53</v>
+        <v>34</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H5">
         <v>25</v>
@@ -1298,27 +1280,27 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H6">
         <v>40</v>
@@ -1336,27 +1318,27 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>91</v>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -1374,27 +1356,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
+      <c r="B8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H8">
         <v>20</v>
@@ -1412,27 +1394,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>108</v>
+      <c r="B9" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H9">
         <v>20</v>
@@ -1450,27 +1432,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>109</v>
+      <c r="B10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H10">
         <v>20</v>
@@ -1488,27 +1470,27 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>110</v>
+      <c r="B11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H11">
         <v>20</v>
@@ -1526,24 +1508,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>111</v>
+      <c r="B12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H12">
         <v>45</v>
@@ -1561,24 +1546,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>112</v>
+      <c r="B13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H13">
         <v>45</v>
@@ -1596,27 +1584,27 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H14">
         <v>45</v>
@@ -1634,27 +1622,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>53</v>
+        <v>71</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H15">
         <v>45</v>
@@ -1672,27 +1660,27 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:1020" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>114</v>
+      <c r="B16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H16">
         <v>45</v>
@@ -1714,23 +1702,23 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>109</v>
+      <c r="B17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H17">
         <v>25</v>
@@ -1752,23 +1740,23 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>110</v>
+      <c r="B18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H18">
         <v>25</v>
@@ -1790,23 +1778,23 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>115</v>
+      <c r="B19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="E19" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H19">
         <v>25</v>
@@ -1828,23 +1816,23 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>112</v>
+      <c r="B20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>53</v>
+        <v>84</v>
+      </c>
+      <c r="F20">
+        <v>21</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H20">
         <v>25</v>
@@ -1866,20 +1854,23 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>116</v>
+      <c r="B21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>53</v>
+        <v>87</v>
+      </c>
+      <c r="F21">
+        <v>21</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H21">
         <v>25</v>
@@ -1902,13 +1893,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>53</v>
+        <v>8</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1922,45 +1910,45 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="5" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875"/>
+    <col min="2" max="2" width="26.5703125"/>
+    <col min="3" max="3" width="24.7109375"/>
+    <col min="4" max="5" width="27.5703125"/>
     <col min="6" max="6" width="54.5703125"/>
-    <col min="7" max="7" width="56.140625" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" customWidth="1"/>
-    <col min="9" max="9" width="38.140625" customWidth="1"/>
-    <col min="10" max="10" width="40.42578125" customWidth="1"/>
-    <col min="11" max="11" width="34.85546875" customWidth="1"/>
-    <col min="12" max="1026" width="10.5703125"/>
+    <col min="7" max="7" width="56.140625"/>
+    <col min="8" max="8" width="31.140625"/>
+    <col min="9" max="9" width="38.140625"/>
+    <col min="10" max="10" width="40.42578125"/>
+    <col min="11" max="11" width="34.85546875"/>
+    <col min="12" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -1968,22 +1956,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>152</v>
+        <v>98</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -1995,22 +1983,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>152</v>
+        <v>103</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2018,22 +2006,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>152</v>
+        <v>106</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2041,22 +2029,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>152</v>
+        <v>109</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2064,22 +2052,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>152</v>
+        <v>112</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2090,57 +2078,57 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="62.42578125" style="6"/>
-    <col min="5" max="5" width="21.5703125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="9" width="13.7109375" style="6"/>
-    <col min="10" max="10" width="24.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875"/>
+    <col min="2" max="2" width="22.42578125"/>
+    <col min="3" max="3" width="15.5703125"/>
+    <col min="4" max="4" width="62.42578125"/>
+    <col min="5" max="5" width="21.5703125"/>
+    <col min="6" max="6" width="19.42578125"/>
+    <col min="7" max="9" width="13.7109375"/>
+    <col min="10" max="10" width="24.140625"/>
     <col min="11" max="11" width="16.28515625"/>
     <col min="12" max="13" width="11.5703125"/>
     <col min="14" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>154</v>
+    <row r="1" spans="1:10" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -2148,31 +2136,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>30</v>
+        <v>123</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="9">
+        <v>125</v>
+      </c>
+      <c r="G2" s="10">
         <v>41613</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="10">
         <v>41620</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="11">
         <v>700</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>165</v>
+      <c r="J2" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -2180,31 +2168,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="9">
+        <v>123</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="10">
         <v>41614</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="10">
         <v>41621</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>433</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>166</v>
+      <c r="J3" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2212,31 +2200,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="9">
+        <v>123</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="10">
         <v>41614</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="10">
         <v>41621</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>433</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>167</v>
+      <c r="J4" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2244,39 +2232,32 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="9">
+        <v>123</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" s="10">
         <v>41614</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="10">
         <v>41621</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="11">
         <v>433</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F6" s="6"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="J5" s="11" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2291,185 +2272,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
+    <col min="1" max="1" width="34"/>
+    <col min="2" max="2" width="47"/>
+    <col min="3" max="3" width="34"/>
+    <col min="4" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
-    <col min="3" max="3" width="91.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.85546875"/>
+    <col min="3" max="3" width="91.7109375"/>
     <col min="4" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
+      <c r="A1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>74</v>
+        <v>147</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>86</v>
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>143</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>144</v>
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6">
+        <v>158</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/test/en/tui_openday_en_v1.xlsx
+++ b/test/en/tui_openday_en_v1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.ponomarenko\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\www\ifilm-dev\test\en\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="162">
   <si>
     <t>Route</t>
   </si>
@@ -107,9 +107,6 @@
     <t>3,4</t>
   </si>
   <si>
-    <t>A break with the family?</t>
-  </si>
-  <si>
     <t>family_intro/clip.mp4</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>5,6</t>
   </si>
   <si>
-    <t>An escape for you and your partner?</t>
-  </si>
-  <si>
     <t>couple_intro/clip.mp4</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
     <t>Kids Club</t>
   </si>
   <si>
-    <t>Go to the Kids club?</t>
-  </si>
-  <si>
     <t>family_decision_point1/clip.mp4</t>
   </si>
   <si>
@@ -149,9 +140,6 @@
     <t>Beach</t>
   </si>
   <si>
-    <t>Head to the beach?</t>
-  </si>
-  <si>
     <t>family_decision_point2/clip.mp4</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
   </si>
   <si>
     <t>Water Park</t>
-  </si>
-  <si>
-    <t>Go to the water park?</t>
   </si>
   <si>
     <t>family_decision_point3/clip.mp4</t>
@@ -589,8 +574,6 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -610,6 +593,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,45 +961,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="11">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="11">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="10">
         <v>4</v>
       </c>
       <c r="E2">
@@ -1029,15 +1014,15 @@
       <c r="H2">
         <v>19</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3">
         <v>14</v>
       </c>
@@ -1050,15 +1035,15 @@
       <c r="H3">
         <v>20</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10">
         <v>3</v>
       </c>
       <c r="E4">
@@ -1073,13 +1058,13 @@
       <c r="H4">
         <v>11</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
       <c r="E5">
         <v>6</v>
       </c>
@@ -1092,7 +1077,7 @@
       <c r="H5">
         <v>12</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1114,7 +1099,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,41 +1120,41 @@
     <col min="1022" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="5" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1183,7 +1168,7 @@
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1200,7 +1185,7 @@
       <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1212,18 +1197,18 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H4">
@@ -1250,18 +1235,18 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H5">
@@ -1285,21 +1270,21 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H6">
@@ -1322,22 +1307,22 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H7">
@@ -1360,22 +1345,22 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>46</v>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H8">
@@ -1398,22 +1383,22 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>50</v>
+      <c r="B9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H9">
@@ -1436,22 +1421,22 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>53</v>
+      <c r="B10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H10">
@@ -1474,22 +1459,22 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>56</v>
+      <c r="B11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H11">
@@ -1512,22 +1497,22 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>59</v>
+      <c r="B12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F12">
         <v>21</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H12">
@@ -1550,22 +1535,22 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>62</v>
+      <c r="B13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F13">
         <v>21</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H13">
@@ -1589,21 +1574,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H14">
@@ -1627,21 +1612,21 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H15">
@@ -1664,22 +1649,22 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>72</v>
+      <c r="B16" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H16">
@@ -1702,22 +1687,22 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>53</v>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H17">
@@ -1740,22 +1725,22 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>56</v>
+      <c r="B18" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H18">
@@ -1778,22 +1763,22 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>80</v>
+      <c r="B19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H19">
@@ -1816,22 +1801,22 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>62</v>
+      <c r="B20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F20">
         <v>21</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H20">
@@ -1854,22 +1839,22 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>85</v>
+      <c r="B21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="D21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F21">
         <v>21</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H21">
@@ -1895,7 +1880,7 @@
       <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1928,27 +1913,27 @@
     <col min="12" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -1956,49 +1941,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2006,22 +1991,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2029,22 +2014,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2052,22 +2037,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2099,36 +2084,36 @@
     <col min="14" max="1025" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -2136,31 +2121,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>100</v>
+        <v>118</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="10">
+        <v>120</v>
+      </c>
+      <c r="G2" s="8">
         <v>41613</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="8">
         <v>41620</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="9">
         <v>700</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>98</v>
+      <c r="J2" s="9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -2168,31 +2153,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="10">
+        <v>118</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="8">
         <v>41614</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="8">
         <v>41621</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>433</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>103</v>
+      <c r="J3" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2200,31 +2185,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <v>41614</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="8">
         <v>41621</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="9">
         <v>433</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>106</v>
+      <c r="J4" s="9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -2232,31 +2217,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <v>41614</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>41621</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="9">
         <v>433</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>109</v>
+      <c r="J5" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2286,68 +2271,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2373,91 +2358,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>116</v>
+      <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>166</v>
+        <v>142</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/test/en/tui_openday_en_v1.xlsx
+++ b/test/en/tui_openday_en_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="537" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="537" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Decisions" sheetId="1" r:id="rId1"/>
@@ -461,9 +461,6 @@
     <t>path_to_media</t>
   </si>
   <si>
-    <t>http://54.220.64.161/media/</t>
-  </si>
-  <si>
     <t>Path to folder with media content</t>
   </si>
   <si>
@@ -510,6 +507,9 @@
   </si>
   <si>
     <t>en/ifilms_v2/media/</t>
+  </si>
+  <si>
+    <t>http://54.216.193.89/media/</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2345,8 +2345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2373,7 +2373,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>143</v>
@@ -2384,65 +2384,65 @@
         <v>144</v>
       </c>
       <c r="B3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" t="s">
         <v>145</v>
-      </c>
-      <c r="C3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
         <v>147</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>148</v>
-      </c>
-      <c r="C4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
         <v>150</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>151</v>
-      </c>
-      <c r="C5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
         <v>153</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>154</v>
-      </c>
-      <c r="C6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
         <v>158</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>159</v>
-      </c>
-      <c r="C8" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
